--- a/data/income_statement/2digits/size/78_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/78_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>78-Employment activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>78-Employment activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>50039.33121</v>
+        <v>53090.71253</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>46389.72027</v>
+        <v>48260.83614</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>43914.43334</v>
+        <v>46022.56034999999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>58509.17573</v>
+        <v>61687.72904000001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>51713.88119</v>
+        <v>53379.65601999999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>76423.30090999999</v>
+        <v>80658.36807000001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>156796.92225</v>
+        <v>164310.71328</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>144292.27914</v>
+        <v>151592.67755</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>138260.84865</v>
+        <v>149114.09944</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>304889.62096</v>
+        <v>335181.10089</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>388172.43908</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>438674.39336</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>332612.77</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>46755.4176</v>
+        <v>49407.03032</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>37668.93399</v>
+        <v>39465.78252</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>41907.61924</v>
+        <v>43940.48704000001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>54993.56506</v>
+        <v>58150.65475</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>48760.50417</v>
+        <v>49836.63847</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>65261.36351</v>
+        <v>68877.66104000001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>81372.76697</v>
+        <v>88572.26468000001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>135754.99081</v>
+        <v>142100.04097</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>118629.63997</v>
+        <v>128704.67382</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>283490.82465</v>
+        <v>312543.00675</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>366248.85163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>411420.39375</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>304171.35</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1423.99653</v>
+        <v>1587.4258</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>6388.76908</v>
@@ -1043,157 +959,177 @@
         <v>1509.8669</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>10003.6765</v>
+        <v>10378.6765</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>71685.46027000001</v>
+        <v>71775.36427999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6038.1613</v>
+        <v>6330.90367</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>16601.3945</v>
+        <v>16953.92583</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>16361.73969</v>
+        <v>16480.07839</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>15178.01964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>17606.10564</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>19936.625</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1859.91708</v>
+        <v>2096.25641</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2332.0172</v>
+        <v>2406.28454</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1702.91308</v>
+        <v>1778.17229</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>933.41551</v>
+        <v>954.87913</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1443.51012</v>
+        <v>2033.15065</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1158.2609</v>
+        <v>1402.03053</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3738.69501</v>
+        <v>3963.08432</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2499.12703</v>
+        <v>3161.73291</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>3029.81418</v>
+        <v>3455.49979</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>5037.05662</v>
+        <v>6158.01575</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>6745.56781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9647.893969999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>8504.795</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>431.97103</v>
+        <v>514.5086100000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>62.71979</v>
+        <v>71.29929</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>95.75216</v>
+        <v>96.42437</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>252.56559</v>
+        <v>264.00605</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>226.23075</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>285.84274</v>
+        <v>656.6902</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>264.94607</v>
+        <v>278.06491</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>298.35343</v>
+        <v>384.30185</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>123.04257</v>
+        <v>129.41762</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>11075.3312</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>862.44226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1003.35305</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3326.047</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>421.66236</v>
+        <v>468.32909</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>61.96979</v>
+        <v>70.54929</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>90.25749999999999</v>
+        <v>90.92953</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>250.48922</v>
+        <v>261.55263</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>209.38345</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>267.283</v>
+        <v>638.13046</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>244.30097</v>
+        <v>257.41981</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>289.24528</v>
+        <v>328.21457</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>99.28431000000002</v>
+        <v>105.65936</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>11049.47515</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>630.9951</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>726.37504</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3187.278</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>0</v>
+        <v>22.43085</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5.314</v>
+        <v>5.31418</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1.112</v>
+        <v>1.48905</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>16.0018</v>
@@ -1205,7 +1141,7 @@
         <v>12.05534</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6</v>
+        <v>52.81632</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>21.542</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>23.61707</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>131.772</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>10.30867</v>
+        <v>23.74867</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>0.75</v>
@@ -1244,7 +1185,7 @@
         <v>8.58976</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>3.10815</v>
+        <v>3.27096</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>2.21626</v>
@@ -1253,94 +1194,109 @@
         <v>7.188800000000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>207.83009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>253.36094</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6.997</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>49607.36018000001</v>
+        <v>52576.20392</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>46327.00048</v>
+        <v>48189.53685</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>43818.68118000001</v>
+        <v>45926.13598</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>58256.61014</v>
+        <v>61423.72298999999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>51487.65044</v>
+        <v>53153.42526999999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>76137.45817</v>
+        <v>80001.67787</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>156531.97618</v>
+        <v>164032.64837</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>143993.92571</v>
+        <v>151208.3757</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>138137.80608</v>
+        <v>148984.68182</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>293814.28976</v>
+        <v>324105.76969</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>387309.99682</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>437671.04031</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>329286.723</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>38864.46947</v>
+        <v>40602.03090000001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>28129.21157</v>
+        <v>29393.83467</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>27570.56805</v>
+        <v>28465.28477</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>40785.88784</v>
+        <v>42292.06437</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>34019.2855</v>
+        <v>34755.42947</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>57164.45653</v>
+        <v>59874.88906</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>134259.58298</v>
+        <v>139515.59887</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>113000.69269</v>
+        <v>118707.96772</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>105321.77658</v>
+        <v>112090.77594</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>230917.17851</v>
+        <v>256072.68317</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>308482.24111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>348622.16741</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>247024.639</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2555.155099999999</v>
+        <v>2555.1551</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>974.7803299999999</v>
@@ -1352,109 +1308,124 @@
         <v>349.36064</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>237.6289</v>
+        <v>391.3299499999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1263.52163</v>
+        <v>1340.78338</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1060.42053</v>
+        <v>1408.77727</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>1265.20837</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>1788.93724</v>
+        <v>2075.27524</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5785.280330000001</v>
+        <v>6123.873060000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2786.284650000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4452.49792</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>16479.616</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>3478.97127</v>
+        <v>3639.44058</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>9767.410820000001</v>
+        <v>10696.18018</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>5017.37719</v>
+        <v>5509.063560000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>11310.68593</v>
+        <v>12049.89396</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3958.92913</v>
+        <v>4131.61663</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>5420.78734</v>
+        <v>6556.127350000001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>22164.35956</v>
+        <v>24921.29207</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>57856.03436999999</v>
+        <v>58450.90375</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>43129.78734</v>
+        <v>44506.17477</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>106799.37996</v>
+        <v>115059.8178</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>151591.60877</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>158549.35044</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>72124.394</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>32787.34464</v>
+        <v>34364.43676</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>17374.38332</v>
+        <v>17710.23706</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>22503.65493</v>
+        <v>22906.68528</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>29076.83397</v>
+        <v>29843.80247</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>29731.33654</v>
+        <v>30141.09196</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>50403.67941</v>
+        <v>51801.51018</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>110637.95793</v>
+        <v>112699.27779</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>53511.37932</v>
+        <v>58625.38158</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>60314.02208</v>
+        <v>65259.27906</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>117520.08468</v>
+        <v>134076.55877</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>153432.77238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>183466.94668</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>154542.994</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>42.99846</v>
@@ -1472,106 +1443,121 @@
         <v>91.39093</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>76.46815000000001</v>
+        <v>176.46815</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>396.84496</v>
+        <v>486.25174</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>368.07063</v>
+        <v>366.47402</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>89.02992</v>
+        <v>250.04687</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>812.4335399999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>671.5753100000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2153.37237</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3877.635</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>10742.89071</v>
+        <v>11974.17302</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>18197.78891</v>
+        <v>18795.70218</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>16248.11313</v>
+        <v>17460.85121</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>17470.7223</v>
+        <v>19131.65862</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>17468.36494</v>
+        <v>18397.9958</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>18973.00164</v>
+        <v>20126.78881</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>22272.3932</v>
+        <v>24517.0495</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>30993.23302</v>
+        <v>32500.40798</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>32816.0295</v>
+        <v>36893.90588</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>62897.11125</v>
+        <v>68033.08652</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>78827.75571</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>89048.8729</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>82262.084</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>12266.89736</v>
+        <v>15277.49465</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>15967.76816</v>
+        <v>16804.54991</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>15041.39738</v>
+        <v>16312.58023</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>17176.11714</v>
+        <v>18738.83279</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>18150.44851</v>
+        <v>19975.19473</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>19920.25084</v>
+        <v>23654.97055</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>23832.67504</v>
+        <v>27412.03376</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>31196.52622</v>
+        <v>36535.37602</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>32781.98213</v>
+        <v>38537.078</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>63571.85409</v>
+        <v>70576.57500999999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>78616.45723999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>94215.90522</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>84093.47900000001</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>47.73785</v>
@@ -1601,175 +1587,200 @@
         <v>0.97072</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>45.44183</v>
+        <v>117.40717</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>125.69126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>130.35904</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>8.561999999999999</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2808.24403</v>
+        <v>2888.75863</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1596.27184</v>
+        <v>1663.70479</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>924.0363599999999</v>
+        <v>992.8983000000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>622.1569199999999</v>
+        <v>829.85313</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1449.47981</v>
+        <v>1503.97978</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1359.13528</v>
+        <v>1393.42203</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1551.75895</v>
+        <v>1628.79368</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>4027.94983</v>
+        <v>4846.367730000001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3739.67493</v>
+        <v>4013.87581</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5323.773480000001</v>
+        <v>5395.16182</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>6744.440670000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>8063.77075</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>8599.342000000001</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>9410.91548</v>
+        <v>12340.99817</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>14371.29717</v>
+        <v>15140.64597</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>14117.36102</v>
+        <v>15319.68193</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>16548.35496</v>
+        <v>17903.3744</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>16700.9687</v>
+        <v>18471.21495</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>18561.11556</v>
+        <v>22261.54852</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>22280.91609</v>
+        <v>25783.24008</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>27165.10037</v>
+        <v>31685.53227</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>29041.33648</v>
+        <v>34522.23147</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>58202.63878</v>
+        <v>65064.00601999999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>71746.32531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>86021.77543000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>75485.575</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-1524.00665</v>
+        <v>-3303.32163</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2230.02075</v>
+        <v>1991.15227</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1206.71575</v>
+        <v>1148.27098</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>294.60516</v>
+        <v>392.8258299999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-682.0835699999999</v>
+        <v>-1577.19893</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-947.2492</v>
+        <v>-3528.18174</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-1560.28184</v>
+        <v>-2894.98426</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-203.2932</v>
+        <v>-4034.96804</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>34.04737000000005</v>
+        <v>-1643.17212</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-674.7428400000001</v>
+        <v>-2543.48849</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>211.29847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-5167.03232</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-1831.395</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>384.97853</v>
+        <v>2004.04653</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>497.97646</v>
+        <v>1253.56771</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1194.74952</v>
+        <v>1519.5806</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>373.10611</v>
+        <v>1727.77282</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1176.96548</v>
+        <v>6554.70217</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1017.52676</v>
+        <v>5699.50759</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>977.29065</v>
+        <v>1938.84905</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1756.74544</v>
+        <v>3086.58565</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1933.38123</v>
+        <v>3333.6532</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>7255.71591</v>
+        <v>137653.64065</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5828.34827</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>14283.58851</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>13103.511</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>13.42474</v>
+        <v>18.67474</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>9.93798</v>
@@ -1784,7 +1795,7 @@
         <v>42.70903</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>171.92812</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>21.38912</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1823,10 +1839,10 @@
         <v>302.54826</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>2286.9</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>641.9111</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>13.79777</v>
@@ -1838,55 +1854,65 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>756.8452199999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>835.16291</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>453.945</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>105.1224</v>
+        <v>160.88214</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>36.31212</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>54.06714</v>
+        <v>55.76427</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>70.36002999999999</v>
+        <v>102.79236</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>120.65053</v>
+        <v>318.50986</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>351.40807</v>
+        <v>1168.99895</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>137.72739</v>
+        <v>398.75074</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>264.09074</v>
+        <v>418.15433</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>279.07542</v>
+        <v>435.26033</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1134.48961</v>
+        <v>3876.99138</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1211.31714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1474.33678</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1451.857</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>0</v>
+        <v>1.61049</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>11.95293</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>42.238</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1946,7 +1977,7 @@
         <v>8.928979999999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>52.49072</v>
+        <v>56.03072</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>0</v>
@@ -1957,89 +1988,104 @@
       <c r="M30" s="48" t="n">
         <v>229.8588</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>123.02</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>60.8348</v>
+        <v>61.62979</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>7.3276</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>7.84309</v>
+        <v>8.068479999999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>17.23862</v>
+        <v>749.23862</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>15.93987</v>
+        <v>16.16453</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>17.59292</v>
+        <v>17.83196</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>32.72847</v>
+        <v>33.26896</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>32.79733</v>
+        <v>36.00947</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>35.7809</v>
+        <v>36.05681</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>53.93564</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>106.70359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>107.06022</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>330.034</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>66.91828</v>
+        <v>1491.67392</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>203.01496</v>
+        <v>958.6062099999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>147.37095</v>
+        <v>467.19951</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>39.9429</v>
+        <v>624.29175</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>179.31556</v>
+        <v>198.41558</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>130.88844</v>
+        <v>561.5935999999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>419.49275</v>
+        <v>419.50209</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>328.19212</v>
+        <v>331.0575</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>690.7602800000001</v>
+        <v>775.09818</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4007.17254</v>
+        <v>130164.64822</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2071.62439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7490.10966</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>5793.272</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.37808</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>41.253</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>138.30023</v>
+        <v>269.19737</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>241.3838</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>84.98123</v>
+        <v>88.06122999999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>108.29952</v>
+        <v>114.18505</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>515.80223</v>
+        <v>5676.35491</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>480.74043</v>
+        <v>1455.35806</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>356.67627</v>
+        <v>414.75039</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1065.37676</v>
+        <v>2231.53586</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>927.76463</v>
+        <v>2087.23788</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1705.73183</v>
+        <v>3203.67912</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1400.0462</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4095.10721</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4827.892</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>255.94189</v>
+        <v>1099.62355</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>250.16545</v>
+        <v>884.55007</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>594.86825</v>
+        <v>2229.6802</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>632.88536</v>
+        <v>886.14235</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>146.46471</v>
+        <v>155.67576</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>223.81851</v>
+        <v>480.61121</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>489.39064</v>
+        <v>505.25338</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>326.94315</v>
+        <v>341.79936</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>763.36126</v>
+        <v>939.9638200000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3414.28444</v>
+        <v>127389.09158</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2334.59567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>11305.99121</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>12054.772</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>9.682</v>
@@ -2216,31 +2282,36 @@
         <v>6.90932</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>11.81087</v>
+        <v>11.81787</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>14.61984</v>
+        <v>15.71893</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>28.6685</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>22.08802</v>
+        <v>22.66027</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>24.56131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>28.64091</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>45.585</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>149.11669</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>139.8655</v>
+        <v>196.23142</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>0</v>
@@ -2258,7 +2329,7 @@
         <v>34.24445</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>39.57148</v>
+        <v>43.11148</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>87.99394000000001</v>
@@ -2267,13 +2338,18 @@
         <v>403.40039</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>289.88642</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>293.84368</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>28.378</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.74941</v>
@@ -2297,10 +2373,10 @@
         <v>1.22378</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>11.60238</v>
+        <v>11.87033</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0</v>
+        <v>0.01815</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>5.480479999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4348.772</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>88.49460999999999</v>
+        <v>932.15499</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>57.10259</v>
+        <v>635.12129</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>502.22393</v>
+        <v>2137.03468</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>59.47625</v>
+        <v>298.80801</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>52.88704</v>
+        <v>61.79684</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>104.54013</v>
+        <v>361.33282</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>425.33109</v>
+        <v>426.81654</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>154.76699</v>
+        <v>159.07088</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>370.26963</v>
+        <v>398.20412</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2834.93296</v>
+        <v>126161.82149</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1766.50956</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9161.219789999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5892.664</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.0001</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>7.89908</v>
+        <v>7.92036</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>31.83642</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>74.92144999999999</v>
+        <v>74.92264999999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>53.09087</v>
+        <v>67.01610000000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>46.47096</v>
+        <v>46.77221</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>112.25025</v>
+        <v>112.25026</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>16.78045</v>
+        <v>31.15074</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>106.26809</v>
+        <v>111.91337</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>276.42919</v>
+        <v>425.07911</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>153.86307</v>
+        <v>801.2094299999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>248.1579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1816.80635</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1739.373</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>115.74944</v>
+        <v>417.1062</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>342.1571700000001</v>
+        <v>345.34318</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>192.77769</v>
+        <v>199.83966</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>723.1586900000001</v>
+        <v>955.22283</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>402.2024</v>
+        <v>538.63697</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>425.35155</v>
+        <v>1460.95883</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>520.70836</v>
+        <v>624.05509</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>604.17276</v>
+        <v>1411.28613</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>624.0466700000001</v>
+        <v>972.27716</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1136.29476</v>
+        <v>3733.856940000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2108.58003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7819.32515</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4224.872</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>115.74944</v>
+        <v>417.1062</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>167.89917</v>
+        <v>171.08518</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>192.77769</v>
+        <v>199.83966</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>723.1586900000001</v>
+        <v>955.22283</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>350.77555</v>
+        <v>487.21012</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>408.27194</v>
+        <v>1443.87922</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>494.24202</v>
+        <v>597.58875</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>587.25022</v>
+        <v>1388.74408</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>607.72704</v>
+        <v>955.95753</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1119.65575</v>
+        <v>3717.21793</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1966.45472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>7537.244809999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4112.781</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2570,7 +2681,7 @@
         <v>26.46634</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>16.92254</v>
+        <v>22.54205</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>16.31963</v>
@@ -2579,94 +2690,109 @@
         <v>16.63901</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>142.12531</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>282.08034</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>112.091</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-1510.71945</v>
+        <v>-2816.00485</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2135.67459</v>
+        <v>2014.82673</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1613.81933</v>
+        <v>238.33172</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-688.3327800000001</v>
+        <v>279.23347</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-53.78520000000007</v>
+        <v>4283.190509999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-578.8925</v>
+        <v>229.75581</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-1593.09019</v>
+        <v>-2085.44368</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>622.33633</v>
+        <v>-2701.46788</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>580.0206699999999</v>
+        <v>-221.7599</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2030.39387</v>
+        <v>3987.20364</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1596.47104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-10008.76017</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-5007.528</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>451.75649</v>
+        <v>3892.23754</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>241.7066</v>
+        <v>406.0360899999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>628.3968000000001</v>
+        <v>1086.07532</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1898.50537</v>
+        <v>1905.66263</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>379.57273</v>
+        <v>1687.84245</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>847.3442899999999</v>
+        <v>909.9377099999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>977.9220800000001</v>
+        <v>1016.37623</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>717.04578</v>
+        <v>1930.98245</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>778.6705299999999</v>
+        <v>877.0298500000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1650.9662</v>
+        <v>2095.94203</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1850.80221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>5531.035349999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>6607.661</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>16.44876</v>
+        <v>940.10915</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>2.23367</v>
@@ -2681,109 +2807,124 @@
         <v>7.44074</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0</v>
+        <v>0.18824</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>0.00704</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3.05425</v>
+        <v>251.91925</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>0</v>
+        <v>18.29444</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>68.90255999999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>0.39969</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.4915499999999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>64.224</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>435.30773</v>
+        <v>2952.12839</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>239.47293</v>
+        <v>403.80242</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>628.3968000000001</v>
+        <v>1086.07532</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1898.50537</v>
+        <v>1905.66263</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>372.13199</v>
+        <v>1680.40171</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>847.3442899999999</v>
+        <v>909.74947</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>977.9150400000001</v>
+        <v>1016.36919</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>713.99153</v>
+        <v>1679.0632</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>778.6705299999999</v>
+        <v>858.73541</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1582.06364</v>
+        <v>2027.03947</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1850.40252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>5530.5438</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>6543.437</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>387.1781</v>
+        <v>560.9108100000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>371.02889</v>
+        <v>423.7641600000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>4667.441420000001</v>
+        <v>10463.29457</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>512.42764</v>
+        <v>699.65118</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>840.9511600000001</v>
+        <v>1331.79406</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4670.868779999999</v>
+        <v>10603.39802</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2009.43242</v>
+        <v>2675.33688</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4023.30176</v>
+        <v>6620.20009</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>882.01689</v>
+        <v>1567.23028</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>7773.45498</v>
+        <v>26427.98588</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1959.02918</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5226.067230000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>13554.958</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3.22757</v>
+        <v>50.19247</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>13.37998</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>17.00441</v>
+        <v>110.63893</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>239.55196</v>
+        <v>254.70912</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>168.86069</v>
+        <v>245.53578</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>20.22288</v>
+        <v>137.26136</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>30.46775</v>
+        <v>31.25479</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>201.36425</v>
+        <v>209.17675</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>159.51665</v>
+        <v>208.5029</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>14.78689</v>
+        <v>378.15967</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>256.00474</v>
+        <v>291.56899</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>15.95977</v>
+        <v>29.65023</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>77.06482000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>85.95614999999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>8610.968999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>366.9461200000001</v>
+        <v>400.07941</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>131.47693</v>
+        <v>169.05504</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>4442.34604</v>
+        <v>10161.5241</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>492.05577</v>
+        <v>562.24083</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>810.48341</v>
+        <v>1300.53927</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4469.504529999999</v>
+        <v>10394.22127</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1849.91577</v>
+        <v>2466.83398</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4007.88163</v>
+        <v>6241.40718</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>626.01215</v>
+        <v>1275.66129</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7743.64171</v>
+        <v>26384.48215</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1868.58438</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>5126.7311</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4943.989</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-1446.14106</v>
+        <v>515.3218800000002</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2006.3523</v>
+        <v>1997.09866</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-2425.22529</v>
+        <v>-9138.88753</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>697.7449499999999</v>
+        <v>1485.24492</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-515.1636299999999</v>
+        <v>4639.2389</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-4402.41699</v>
+        <v>-9463.7045</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-2624.60053</v>
+        <v>-3744.40433</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-2683.91965</v>
+        <v>-7390.68552</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>476.6743099999999</v>
+        <v>-911.96033</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-4092.09491</v>
+        <v>-20344.84021</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1488.24407</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-9703.79205</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-11954.825</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>295.15912</v>
+        <v>389.43316</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>490.25184</v>
+        <v>576.2065399999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>655.6923600000001</v>
+        <v>671.5560800000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>540.0554299999999</v>
+        <v>650.0527099999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>614.2296299999999</v>
+        <v>1909.81478</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>830.8848400000001</v>
+        <v>962.34808</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>870.68971</v>
+        <v>907.7779</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1194.53356</v>
+        <v>1349.84142</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>892.52715</v>
+        <v>1180.82484</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2745.20676</v>
+        <v>2994.43846</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2847.35654</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3565.75003</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>5500.565</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1741.30018</v>
+        <v>125.8887199999997</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1516.10046</v>
+        <v>1420.89212</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-3080.91765</v>
+        <v>-9810.44361</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>157.68952</v>
+        <v>835.1922099999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-1129.39326</v>
+        <v>2729.42412</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-5233.301830000001</v>
+        <v>-10426.05258</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-3495.29024</v>
+        <v>-4652.18223</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-3878.45321</v>
+        <v>-8740.52694</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-415.85284</v>
+        <v>-2092.78517</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-6837.30167</v>
+        <v>-23339.27867</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-1359.11247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-13269.54208</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-17455.39</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>558</v>
+        <v>609</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>844</v>
+        <v>947</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1056</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>